--- a/trunk/ID2210/ID2210_lab1/Experiments.xlsx
+++ b/trunk/ID2210/ID2210_lab1/Experiments.xlsx
@@ -4,37 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>successful</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>avg hop-count</t>
-  </si>
-  <si>
-    <t>avg hop</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>avg hop count</t>
   </si>
@@ -76,10 +57,6 @@
     <t>Avg hop count</t>
   </si>
   <si>
-    <t>Total hop count
-(90 peers)</t>
-  </si>
-  <si>
     <t>Interval Time</t>
   </si>
   <si>
@@ -90,6 +67,9 @@
   </si>
   <si>
     <t>Question 6</t>
+  </si>
+  <si>
+    <t>Total hop count</t>
   </si>
 </sst>
 </file>
@@ -169,19 +149,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0961540324064676E-2"/>
+          <c:x val="8.0961540324064718E-2"/>
           <c:y val="0.17628499562554681"/>
-          <c:w val="0.64282069907313266"/>
-          <c:h val="0.6548221055701372"/>
+          <c:w val="0.64282069907313311"/>
+          <c:h val="0.65482210557013742"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -259,23 +237,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75958144"/>
-        <c:axId val="75959680"/>
+        <c:axId val="84576128"/>
+        <c:axId val="84577664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75958144"/>
+        <c:axId val="84576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75959680"/>
+        <c:crossAx val="84577664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75959680"/>
+        <c:axId val="84577664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -283,20 +261,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75958144"/>
+        <c:crossAx val="84576128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -362,42 +339,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19600</c:v>
+                  <c:v>195200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21600</c:v>
+                  <c:v>97600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36000</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37000</c:v>
+                  <c:v>48800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34600</c:v>
+                  <c:v>39000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75996544"/>
-        <c:axId val="76010624"/>
+        <c:axId val="84606336"/>
+        <c:axId val="85345408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75996544"/>
+        <c:axId val="84606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76010624"/>
+        <c:crossAx val="85345408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76010624"/>
+        <c:axId val="85345408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +382,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75996544"/>
+        <c:crossAx val="84606336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -418,7 +395,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -480,19 +457,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.59090909090909094</c:v>
+                  <c:v>0.84536082474226804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53658536585365857</c:v>
+                  <c:v>0.56382978723404253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71111111111111114</c:v>
+                  <c:v>0.63736263736263732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43421052631578949</c:v>
+                  <c:v>0.83157894736842108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70652173913043481</c:v>
+                  <c:v>0.74712643678160917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,42 +524,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.82474226804123707</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45121951219512196</c:v>
+                  <c:v>0.45744680851063829</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.53846153846153844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.82105263157894737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54347826086956519</c:v>
+                  <c:v>0.64367816091954022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="76634368"/>
-        <c:axId val="76648448"/>
+        <c:axId val="85375232"/>
+        <c:axId val="85381120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76634368"/>
+        <c:axId val="85375232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76648448"/>
+        <c:crossAx val="85381120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76648448"/>
+        <c:axId val="85381120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +567,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76634368"/>
+        <c:crossAx val="85375232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -603,7 +580,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -629,8 +606,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total hop count
-(90 peers)</c:v>
+                  <c:v>Total hop count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -669,30 +645,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>87.929999999999993</c:v>
+                  <c:v>177.995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.45</c:v>
+                  <c:v>97.00800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.96</c:v>
+                  <c:v>100.009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.62</c:v>
+                  <c:v>172.995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.03</c:v>
+                  <c:v>127.629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="76660096"/>
-        <c:axId val="76678272"/>
+        <c:axId val="85388672"/>
+        <c:axId val="85419136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76660096"/>
+        <c:axId val="85388672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,12 +678,12 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="76678272"/>
+        <c:crossAx val="85419136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76678272"/>
+        <c:axId val="85419136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +691,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76660096"/>
+        <c:crossAx val="85388672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,7 +704,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -744,10 +720,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10472804264622056"/>
-          <c:y val="4.4995013921132213E-2"/>
-          <c:w val="0.58756318944618779"/>
-          <c:h val="0.82337027020558606"/>
+          <c:x val="0.10472804264622061"/>
+          <c:y val="4.4995013921132247E-2"/>
+          <c:w val="0.58756318944618746"/>
+          <c:h val="0.82337027020558651"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -906,23 +882,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="76708096"/>
-        <c:axId val="76713984"/>
+        <c:axId val="85453056"/>
+        <c:axId val="85463040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76708096"/>
+        <c:axId val="85453056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76713984"/>
+        <c:crossAx val="85463040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76713984"/>
+        <c:axId val="85463040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +906,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76708096"/>
+        <c:crossAx val="85453056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -943,7 +919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -969,8 +945,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total hop count
-(90 peers)</c:v>
+                  <c:v>Total hop count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1009,30 +984,30 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>70.11</c:v>
+                  <c:v>59.983000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.75</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.58</c:v>
+                  <c:v>74.994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.25</c:v>
+                  <c:v>80.024999999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.39999999999999</c:v>
+                  <c:v>109.03999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="76746112"/>
-        <c:axId val="76747904"/>
+        <c:axId val="85486976"/>
+        <c:axId val="85492864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76746112"/>
+        <c:axId val="85486976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,12 +1017,12 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
-        <c:crossAx val="76747904"/>
+        <c:crossAx val="85492864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76747904"/>
+        <c:axId val="85492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1030,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76746112"/>
+        <c:crossAx val="85486976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1068,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1544,386 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>500</v>
-      </c>
-      <c r="B2">
-        <v>38</v>
-      </c>
-      <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="E2">
-        <v>65</v>
-      </c>
-      <c r="F2">
-        <v>56</v>
-      </c>
-      <c r="G2">
-        <v>83</v>
-      </c>
-      <c r="H2">
-        <f>E2/G2</f>
-        <v>0.7831325301204819</v>
-      </c>
-      <c r="I2">
-        <f>F2/G2</f>
-        <v>0.67469879518072284</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3">
-        <v>138</v>
-      </c>
-      <c r="C3">
-        <v>150</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>67</v>
-      </c>
-      <c r="H3">
-        <f>E3/G3</f>
-        <v>0.59701492537313428</v>
-      </c>
-      <c r="I3">
-        <f>F3/G3</f>
-        <v>0.34328358208955223</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>1500</v>
-      </c>
-      <c r="B4">
-        <v>168</v>
-      </c>
-      <c r="C4">
-        <v>265</v>
-      </c>
-      <c r="E4">
-        <v>49</v>
-      </c>
-      <c r="F4">
-        <v>29</v>
-      </c>
-      <c r="G4">
-        <v>77</v>
-      </c>
-      <c r="H4">
-        <f>E4/G4</f>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="I4">
-        <f>F4/G4</f>
-        <v>0.37662337662337664</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>2000</v>
-      </c>
-      <c r="B5">
-        <v>184</v>
-      </c>
-      <c r="C5">
-        <v>380</v>
-      </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>28</v>
-      </c>
-      <c r="G5">
-        <v>70</v>
-      </c>
-      <c r="H5">
-        <f>E5/G5</f>
-        <v>0.58571428571428574</v>
-      </c>
-      <c r="I5">
-        <f>F5/G5</f>
-        <v>0.4</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>2500</v>
-      </c>
-      <c r="B6">
-        <v>149</v>
-      </c>
-      <c r="C6">
-        <v>385</v>
-      </c>
-      <c r="E6">
-        <v>56</v>
-      </c>
-      <c r="F6">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>79</v>
-      </c>
-      <c r="H6">
-        <f>E6/G6</f>
-        <v>0.70886075949367089</v>
-      </c>
-      <c r="I6">
-        <f>F6/G6</f>
-        <v>0.44303797468354428</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>3000</v>
-      </c>
-      <c r="B7">
-        <v>172</v>
-      </c>
-      <c r="C7">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>200</v>
-      </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>62</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>B12/D12</f>
-        <v>0.25806451612903225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>400</v>
-      </c>
-      <c r="B13">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>82</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <f>B13/D13</f>
-        <v>0.53658536585365857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>600</v>
-      </c>
-      <c r="B14">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>82</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <f>B14/D14</f>
-        <v>0.64634146341463417</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>800</v>
-      </c>
-      <c r="B15">
-        <v>54</v>
-      </c>
-      <c r="C15">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>90</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <f>B15/D15</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>1000</v>
-      </c>
-      <c r="B16">
-        <v>59</v>
-      </c>
-      <c r="C16">
-        <v>51</v>
-      </c>
-      <c r="D16">
-        <v>93</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <f>B16/D16</f>
-        <v>0.63440860215053763</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>32</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>64</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>128</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>256</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>512</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1943,21 +1542,21 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1965,14 +1564,14 @@
         <v>500</v>
       </c>
       <c r="B3" s="2">
-        <v>98</v>
+        <v>976</v>
       </c>
       <c r="C3" s="2">
-        <v>61</v>
+        <v>500</v>
       </c>
       <c r="D3" s="2">
         <f>B3*200</f>
-        <v>19600</v>
+        <v>195200</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1980,14 +1579,14 @@
         <v>1000</v>
       </c>
       <c r="B4" s="2">
-        <v>108</v>
+        <v>488</v>
       </c>
       <c r="C4" s="2">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D7" si="0">B4*200</f>
-        <v>21600</v>
+        <v>97600</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1995,14 +1594,14 @@
         <v>1500</v>
       </c>
       <c r="B5" s="2">
-        <v>180</v>
+        <v>325</v>
       </c>
       <c r="C5" s="2">
-        <v>282</v>
+        <v>500</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>36000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2010,14 +1609,14 @@
         <v>2000</v>
       </c>
       <c r="B6" s="2">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="C6" s="2">
-        <v>383</v>
+        <v>500</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>37000</v>
+        <v>48800</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2025,45 +1624,45 @@
         <v>2500</v>
       </c>
       <c r="B7" s="2">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>34600</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30">
       <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2071,28 +1670,28 @@
         <v>500</v>
       </c>
       <c r="B16" s="2">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2">
         <f>C16/B16</f>
-        <v>0.59090909090909094</v>
+        <v>0.84536082474226804</v>
       </c>
       <c r="F16" s="2">
         <f>D16/B16</f>
-        <v>0.5</v>
+        <v>0.82474226804123707</v>
       </c>
       <c r="G16" s="2">
-        <v>0.97699999999999998</v>
+        <v>1.835</v>
       </c>
       <c r="H16" s="4">
-        <f>G16*90</f>
-        <v>87.929999999999993</v>
+        <f>G16*B16</f>
+        <v>177.995</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2100,28 +1699,28 @@
         <v>1000</v>
       </c>
       <c r="B17" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ref="E17:E20" si="1">C17/B17</f>
-        <v>0.53658536585365857</v>
+        <v>0.56382978723404253</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ref="F17:F20" si="2">D17/B17</f>
-        <v>0.45121951219512196</v>
+        <v>0.45744680851063829</v>
       </c>
       <c r="G17" s="2">
-        <v>0.80500000000000005</v>
+        <v>1.032</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17:H20" si="3">G17*90</f>
-        <v>72.45</v>
+        <f t="shared" ref="H17:H20" si="3">G17*B17</f>
+        <v>97.00800000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2129,28 +1728,28 @@
         <v>1500</v>
       </c>
       <c r="B18" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>0.71111111111111114</v>
+        <v>0.63736263736263732</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="G18" s="2">
-        <v>1.444</v>
+        <v>1.099</v>
       </c>
       <c r="H18" s="4">
         <f t="shared" si="3"/>
-        <v>129.96</v>
+        <v>100.009</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2158,28 +1757,28 @@
         <v>2000</v>
       </c>
       <c r="B19" s="2">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>0.43421052631578949</v>
+        <v>0.83157894736842108</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>0.21052631578947367</v>
+        <v>0.82105263157894737</v>
       </c>
       <c r="G19" s="2">
-        <v>0.61799999999999999</v>
+        <v>1.821</v>
       </c>
       <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>55.62</v>
+        <v>172.995</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2187,28 +1786,28 @@
         <v>2500</v>
       </c>
       <c r="B20" s="2">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2">
         <v>65</v>
       </c>
       <c r="D20" s="2">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>0.70652173913043481</v>
+        <v>0.74712643678160917</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>0.54347826086956519</v>
+        <v>0.64367816091954022</v>
       </c>
       <c r="G20" s="2">
         <v>1.4670000000000001</v>
       </c>
       <c r="H20" s="4">
         <f t="shared" si="3"/>
-        <v>132.03</v>
+        <v>127.629</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2218,33 +1817,33 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="30">
       <c r="A40" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2272,8 +1871,8 @@
         <v>0.77900000000000003</v>
       </c>
       <c r="H41" s="4">
-        <f>G41*90</f>
-        <v>70.11</v>
+        <f>G41*B41</f>
+        <v>59.983000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2301,8 +1900,8 @@
         <v>0.875</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" ref="H42:H45" si="6">G42*90</f>
-        <v>78.75</v>
+        <f t="shared" ref="H42:H45" si="6">G42*B42</f>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2331,7 +1930,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" si="6"/>
-        <v>77.58</v>
+        <v>74.994</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2360,7 +1959,7 @@
       </c>
       <c r="H44" s="4">
         <f t="shared" si="6"/>
-        <v>74.25</v>
+        <v>80.024999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2389,7 +1988,7 @@
       </c>
       <c r="H45" s="4">
         <f t="shared" si="6"/>
-        <v>104.39999999999999</v>
+        <v>109.03999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="156.75" customHeight="1"/>
@@ -2415,15 +2014,15 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2482,7 +2081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
